--- a/TurkInputFiles/SpectacularNowFemalePart2.xlsx
+++ b/TurkInputFiles/SpectacularNowFemalePart2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaye\Desktop\aoibheannamy.github.io\TurkInputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BAA1FF-9E59-4401-B9EF-36947433DE20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3401028A-8B6E-43B1-9713-B165FDB2EEA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F44575C3-1C6A-4706-BE98-C6A195D6AFED}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="10440" windowHeight="10920" xr2:uid="{F44575C3-1C6A-4706-BE98-C6A195D6AFED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,21 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>image_url</t>
-  </si>
-  <si>
-    <t>video_url</t>
-  </si>
-  <si>
-    <t>Hit1_video_url_data</t>
-  </si>
-  <si>
-    <t>Hit2_video_url_data</t>
-  </si>
-  <si>
-    <t>Hit3_video_url_data</t>
   </si>
   <si>
     <t>image2_url</t>
@@ -533,190 +521,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48941A9-B169-4429-B4AA-EBAD607E5256}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C20"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
